--- a/Project_Management/Python_Gantt_Schedule.xlsx
+++ b/Project_Management/Python_Gantt_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4010E074-7D83-43BD-9166-C1A2F0F6E46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D6CDC-758A-48BB-AF53-C325057C0E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>PERIODS</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Wrap Up and Next</t>
+  </si>
+  <si>
+    <t>KiCad Tutorial</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1036,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1375,9 +1378,11 @@
       <c r="E6" s="7">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
       <c r="G6" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1393,9 +1398,11 @@
       <c r="E7" s="7">
         <v>11</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
       <c r="G7" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1408,10 +1415,14 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1424,10 +1435,14 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1440,10 +1455,14 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="7"/>
     </row>
@@ -1457,15 +1476,17 @@
       <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>13</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6">
-        <v>1</v>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <f>C10+D10</f>
@@ -1474,10 +1495,12 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1569,7 +1592,9 @@
         <f>SUM(D19:D28)</f>
         <v>50</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>17</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
         <v>0</v>
@@ -1585,7 +1610,9 @@
       <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7">
+        <v>17</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
         <v>0</v>
